--- a/documents/04_テスト仕様書_テスト結果報告書_makwm.xlsx
+++ b/documents/04_テスト仕様書_テスト結果報告書_makwm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29019"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29022"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\6月_WEBアプリ開発演習コース_作成フォルダ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="13_ncr:1_{0EC13A7D-5653-4439-9A29-CFBABD71D569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3119482C-CA31-468C-81AF-D245B458C678}"/>
+  <xr:revisionPtr revIDLastSave="260" documentId="13_ncr:1_{0EC13A7D-5653-4439-9A29-CFBABD71D569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8053A7B0-DA7C-460B-986B-7E2D76BB693E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="150">
   <si>
     <t>テストID</t>
     <phoneticPr fontId="1"/>
@@ -616,7 +616,18 @@
     <t>ストレス結果画面（日・週）からホーム画面に遷移しない</t>
   </si>
   <si>
-    <t>NG</t>
+    <t>　</t>
+  </si>
+  <si>
+    <t>ログインし、ホーム画面に遷移する。</t>
+  </si>
+  <si>
+    <t>アイテム選択のアイテム所持数は
+適切な個数を表示する。</t>
+  </si>
+  <si>
+    <t>時間が足りず、
+実装を諦めた</t>
   </si>
   <si>
     <t>キャラクターのコメントは、
@@ -671,13 +682,16 @@
   </si>
   <si>
     <t>チェック後表示</t>
-    <rPh sb="4" eb="5">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ストレスチェックを行った
+後の状態</t>
+  </si>
+  <si>
+    <t>別の画面からホーム画面に遷移してくる。</t>
+  </si>
+  <si>
+    <t>ログインボーナスについてのモーダルを表示する。（チェック後１度のみ）</t>
   </si>
   <si>
     <t>ストレスチェックを行った
@@ -735,6 +749,41 @@
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム項目</t>
+  </si>
+  <si>
+    <t>アイテム選択からアイテムを選び、あげるボタンを実行する</t>
+  </si>
+  <si>
+    <t>該当アイテムの所持数が-1されている</t>
+  </si>
+  <si>
+    <t>ログインボーナスが付与されたことを確認した後、アイテム選択モーダルを開く</t>
+  </si>
+  <si>
+    <t>該当アイテムの所持数が+1されている</t>
+  </si>
+  <si>
+    <t>キャラクター</t>
+  </si>
+  <si>
+    <t>キャラクターにストレスチェックの
+結果が反映されている。</t>
+  </si>
+  <si>
+    <t>キャラクターの吹き出しにある表情アイコンをクリックする。</t>
+  </si>
+  <si>
+    <t>負の感情が消える動作が表示される。</t>
+  </si>
+  <si>
+    <t>アイテムをあげた後の状態</t>
+  </si>
+  <si>
+    <t>キャラクターにエフェクト等が
+表示されている</t>
   </si>
   <si>
     <t>ストレスチェック</t>
@@ -1263,7 +1312,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1282,8 +1331,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1371,11 +1426,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1398,6 +1486,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1410,8 +1501,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1692,10 +1795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M62"/>
+  <dimension ref="A2:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B61"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2248,7 +2351,7 @@
       <c r="B19" s="1">
         <v>17</v>
       </c>
-      <c r="C19" s="18"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="11"/>
       <c r="E19" s="1" t="s">
         <v>14</v>
@@ -2282,7 +2385,7 @@
       <c r="B20" s="1">
         <v>18</v>
       </c>
-      <c r="C20" s="19"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="10" t="s">
         <v>44</v>
       </c>
@@ -2676,7 +2779,7 @@
       </c>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="2:13" ht="30.75">
+    <row r="33" spans="1:13" ht="30.75">
       <c r="B33" s="1">
         <v>31</v>
       </c>
@@ -2706,11 +2809,11 @@
       </c>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="2:13" ht="36" customHeight="1">
+    <row r="34" spans="1:13" ht="36" customHeight="1">
       <c r="B34" s="1">
         <v>32</v>
       </c>
-      <c r="C34" s="16"/>
+      <c r="C34" s="19"/>
       <c r="D34" s="11"/>
       <c r="E34" s="1" t="s">
         <v>14</v>
@@ -2736,11 +2839,11 @@
       </c>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="2:13">
+    <row r="35" spans="1:13">
       <c r="B35" s="1">
         <v>33</v>
       </c>
-      <c r="C35" s="17"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="10" t="s">
         <v>44</v>
       </c>
@@ -2766,7 +2869,7 @@
       </c>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="2:13" ht="45.75">
+    <row r="36" spans="1:13" ht="45.75">
       <c r="B36" s="1">
         <v>34</v>
       </c>
@@ -2785,11 +2888,11 @@
       <c r="G36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="18" t="s">
         <v>70</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>48</v>
@@ -2804,58 +2907,63 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="2:13" ht="45.75">
-      <c r="B37" s="1">
+    <row r="37" spans="1:13" ht="30.75">
+      <c r="A37" s="23"/>
+      <c r="B37" s="29">
         <v>35</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G37" s="2" t="s">
+      <c r="C37" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K37" s="12">
-        <v>45833</v>
-      </c>
-      <c r="L37" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M37" s="2" t="s">
+      <c r="G37" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="38" spans="2:13">
+      <c r="H37" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="I37" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="J37" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="K37" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="L37" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="M37" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="45.75">
       <c r="B38" s="1">
         <v>36</v>
       </c>
       <c r="C38" s="10"/>
-      <c r="D38" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="D38" s="11"/>
       <c r="E38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H38" s="1"/>
+      <c r="H38" s="18" t="s">
+        <v>70</v>
+      </c>
       <c r="I38" s="1" t="s">
         <v>17</v>
       </c>
@@ -2868,9 +2976,11 @@
       <c r="L38" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="2:13" ht="60.75">
+      <c r="M38" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="B39" s="1">
         <v>37</v>
       </c>
@@ -2878,20 +2988,18 @@
       <c r="D39" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="G39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="1"/>
       <c r="I39" s="1" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>48</v>
@@ -2899,278 +3007,322 @@
       <c r="K39" s="12">
         <v>45833</v>
       </c>
-      <c r="L39" s="21" t="s">
+      <c r="L39" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M39" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" ht="30.75">
-      <c r="B40" s="1">
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="1:13" ht="30.75">
+      <c r="A40" s="23"/>
+      <c r="B40" s="29">
         <v>38</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K40" s="12">
-        <v>45832</v>
-      </c>
-      <c r="L40" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="M40" s="1"/>
-    </row>
-    <row r="41" spans="2:13" ht="30.75">
+      <c r="H40" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="I40" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="J40" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="K40" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="L40" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="M40" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="60.75">
       <c r="B41" s="1">
         <v>39</v>
       </c>
       <c r="C41" s="10"/>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="31"/>
+      <c r="E41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K41" s="12">
+        <v>45833</v>
+      </c>
+      <c r="L41" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="M41" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="30.75">
+      <c r="A42" s="23"/>
+      <c r="B42" s="29">
+        <v>40</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K41" s="12">
-        <v>45832</v>
-      </c>
-      <c r="L41" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="M41" s="1"/>
-    </row>
-    <row r="42" spans="2:13">
-      <c r="B42" s="1">
-        <v>40</v>
-      </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="1" t="s">
+      <c r="E42" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K42" s="12">
-        <v>45832</v>
-      </c>
-      <c r="L42" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="M42" s="1"/>
-    </row>
-    <row r="43" spans="2:13" ht="30.75">
-      <c r="B43" s="1">
+      <c r="H42" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="I42" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="J42" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="K42" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="L42" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="M42" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="30.75">
+      <c r="A43" s="23"/>
+      <c r="B43" s="29">
         <v>41</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="1" t="s">
+      <c r="C43" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="31"/>
+      <c r="E43" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K43" s="12">
-        <v>45832</v>
-      </c>
-      <c r="L43" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="M43" s="1"/>
-    </row>
-    <row r="44" spans="2:13">
-      <c r="B44" s="1">
+      <c r="H43" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="I43" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="J43" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="K43" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="L43" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="M43" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="30.75">
+      <c r="A44" s="23"/>
+      <c r="B44" s="29">
         <v>42</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="1" t="s">
+      <c r="C44" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="E44" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K44" s="12">
-        <v>45832</v>
-      </c>
-      <c r="L44" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="M44" s="1"/>
-    </row>
-    <row r="45" spans="2:13">
-      <c r="B45" s="1">
+      <c r="H44" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="I44" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="J44" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="K44" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="L44" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="M44" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="30.75">
+      <c r="A45" s="23"/>
+      <c r="B45" s="29">
         <v>43</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="10" t="s">
+      <c r="C45" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="32"/>
+      <c r="E45" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="G45" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="H45" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="I45" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="J45" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="K45" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="L45" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="M45" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="30.75">
+      <c r="A46" s="23"/>
+      <c r="B46" s="29">
+        <v>44</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="31"/>
+      <c r="E46" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F46" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K45" s="12">
-        <v>45832</v>
-      </c>
-      <c r="L45" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="M45" s="1"/>
-    </row>
-    <row r="46" spans="2:13" ht="30.75">
-      <c r="B46" s="1">
-        <v>44</v>
-      </c>
-      <c r="C46" s="9" t="s">
+      <c r="G46" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K46" s="15">
-        <v>45833</v>
-      </c>
-      <c r="L46" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M46" s="1"/>
-    </row>
-    <row r="47" spans="2:13">
+      <c r="H46" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="I46" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="J46" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="K46" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="L46" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="M46" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="30.75">
       <c r="B47" s="1">
         <v>45</v>
       </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
+      <c r="C47" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>102</v>
+      <c r="F47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="K47" s="12">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="L47" s="13" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="1:13" ht="30.75">
       <c r="B48" s="1">
         <v>46</v>
       </c>
       <c r="C48" s="10"/>
-      <c r="D48" s="11"/>
+      <c r="D48" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="E48" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="2" t="s">
         <v>104</v>
       </c>
       <c r="H48" s="1"/>
@@ -3178,13 +3330,13 @@
         <v>17</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="K48" s="12">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="L48" s="13" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="M48" s="1"/>
     </row>
@@ -3193,30 +3345,28 @@
         <v>47</v>
       </c>
       <c r="C49" s="10"/>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="10"/>
+      <c r="E49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="K49" s="12">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="L49" s="13" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="M49" s="1"/>
     </row>
@@ -3227,42 +3377,42 @@
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
       <c r="E50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="K50" s="12">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="L50" s="13" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="2:13" ht="30.75">
+    <row r="51" spans="2:13">
       <c r="B51" s="1">
         <v>49</v>
       </c>
-      <c r="C51" s="11"/>
+      <c r="C51" s="10"/>
       <c r="D51" s="11"/>
       <c r="E51" s="1" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>110</v>
       </c>
       <c r="H51" s="1"/>
@@ -3270,13 +3420,13 @@
         <v>17</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="K51" s="12">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="L51" s="13" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="M51" s="1"/>
     </row>
@@ -3284,55 +3434,61 @@
       <c r="B52" s="1">
         <v>50</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="11"/>
+      <c r="D52" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="E52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
+      <c r="I52" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="J52" s="1" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="K52" s="12">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="L52" s="13" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="2:13">
+    <row r="53" spans="2:13" ht="30.75">
       <c r="B53" s="1">
         <v>51</v>
       </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
+      <c r="C53" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="E53" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>114</v>
+      <c r="F53" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
+      <c r="I53" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="J53" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K53" s="12">
+        <v>101</v>
+      </c>
+      <c r="K53" s="15">
         <v>45833</v>
       </c>
       <c r="L53" s="13" t="s">
@@ -3350,13 +3506,15 @@
         <v>14</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
+      <c r="I54" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="J54" s="1" t="s">
         <v>48</v>
       </c>
@@ -3373,18 +3531,20 @@
         <v>53</v>
       </c>
       <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
+      <c r="D55" s="11"/>
       <c r="E55" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
+      <c r="I55" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="J55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3401,18 +3561,22 @@
         <v>54</v>
       </c>
       <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
+      <c r="D56" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="E56" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
+      <c r="I56" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="J56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3424,23 +3588,25 @@
       </c>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="2:13">
+    <row r="57" spans="2:13" ht="30.75">
       <c r="B57" s="1">
         <v>55</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
       <c r="E57" s="1" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
+      <c r="I57" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="J57" s="1" t="s">
         <v>48</v>
       </c>
@@ -3452,23 +3618,25 @@
       </c>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="2:13">
+    <row r="58" spans="2:13" ht="30.75">
       <c r="B58" s="1">
         <v>56</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
       <c r="E58" s="1" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>28</v>
+        <v>120</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
+      <c r="I58" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="J58" s="1" t="s">
         <v>48</v>
       </c>
@@ -3480,31 +3648,31 @@
       </c>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="2:13" ht="30.75">
+    <row r="59" spans="2:13">
       <c r="B59" s="1">
         <v>57</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E59" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="K59" s="12">
         <v>45833</v>
@@ -3520,19 +3688,21 @@
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
+      <c r="E60" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F60" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="K60" s="12">
         <v>45833</v>
@@ -3546,21 +3716,23 @@
       <c r="B61" s="1">
         <v>59</v>
       </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F61" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="K61" s="12">
         <v>45833</v>
@@ -3571,18 +3743,228 @@
       <c r="M61" s="1"/>
     </row>
     <row r="62" spans="2:13">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
+      <c r="B62" s="1">
+        <v>60</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
+      <c r="I62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K62" s="12">
+        <v>45833</v>
+      </c>
+      <c r="L62" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="M62" s="1"/>
+    </row>
+    <row r="63" spans="2:13">
+      <c r="B63" s="1">
+        <v>61</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K63" s="12">
+        <v>45833</v>
+      </c>
+      <c r="L63" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M63" s="1"/>
+    </row>
+    <row r="64" spans="2:13">
+      <c r="B64" s="1">
+        <v>62</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K64" s="12">
+        <v>45833</v>
+      </c>
+      <c r="L64" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M64" s="1"/>
+    </row>
+    <row r="65" spans="2:13">
+      <c r="B65" s="1">
+        <v>63</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K65" s="12">
+        <v>45833</v>
+      </c>
+      <c r="L65" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" spans="2:13" ht="30.75">
+      <c r="B66" s="1">
+        <v>64</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K66" s="12">
+        <v>45833</v>
+      </c>
+      <c r="L66" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="2:13">
+      <c r="B67" s="1">
+        <v>65</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K67" s="12">
+        <v>45833</v>
+      </c>
+      <c r="L67" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="2:13">
+      <c r="B68" s="1">
+        <v>66</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K68" s="12">
+        <v>45833</v>
+      </c>
+      <c r="L68" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" spans="2:13">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
